--- a/stock1.xlsx
+++ b/stock1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yxzhu\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GithubZhuyanxi\CarnoFinance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{778CC504-FB3C-48AC-BB6B-72F480508CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E712340-A0B7-438F-AE4C-4F0FAD219006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12000" yWindow="3900" windowWidth="23085" windowHeight="15345" xr2:uid="{FF009721-C680-46B5-A86A-A7B389958F06}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{FF009721-C680-46B5-A86A-A7B389958F06}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -428,7 +428,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="AA36" sqref="AA36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,7 +460,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>10</v>
+        <v>0.25</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -480,18 +480,18 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>100</v>
+        <v>197</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
         <f>C2+A3*(B3-B2)</f>
-        <v>100</v>
+        <v>197</v>
       </c>
       <c r="D3">
         <f>C3/B3</f>
-        <v>100</v>
+        <v>197</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -502,177 +502,177 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f>A3-A2</f>
-        <v>90</v>
+        <f>A3*(1-A2)</f>
+        <v>147.75</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4">
         <f>C3+A4*(B4-B3)</f>
-        <v>280</v>
+        <v>492.5</v>
       </c>
       <c r="D4">
         <f>C4/B4</f>
-        <v>93.333333333333329</v>
+        <v>164.16666666666666</v>
       </c>
       <c r="E4">
         <f>(A4/D3-1)*100</f>
-        <v>-9.9999999999999982</v>
+        <v>-25</v>
       </c>
       <c r="F4">
         <f>(A4/D4-1)*100</f>
-        <v>-3.5714285714285698</v>
+        <v>-9.9999999999999982</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f>A4-A2</f>
-        <v>80</v>
+        <f>A4*(1-A2)</f>
+        <v>110.8125</v>
       </c>
       <c r="B5">
         <v>6</v>
       </c>
       <c r="C5">
         <f>C4+A5*(B5-B4)</f>
-        <v>520</v>
+        <v>824.9375</v>
       </c>
       <c r="D5">
         <f>C5/B5</f>
-        <v>86.666666666666671</v>
+        <v>137.48958333333334</v>
       </c>
       <c r="E5">
         <f t="shared" ref="E5:E10" si="0">(A5/D4-1)*100</f>
-        <v>-14.285714285714279</v>
+        <v>-32.499999999999993</v>
       </c>
       <c r="F5">
         <f t="shared" ref="F5:F10" si="1">(A5/D5-1)*100</f>
-        <v>-7.6923076923076987</v>
+        <v>-19.402985074626866</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f>A5-A2</f>
-        <v>70</v>
+        <f>A5*(1-A2)</f>
+        <v>83.109375</v>
       </c>
       <c r="B6">
         <v>10</v>
       </c>
       <c r="C6">
         <f t="shared" ref="C6:C10" si="2">C5+A6*(B6-B5)</f>
-        <v>800</v>
+        <v>1157.375</v>
       </c>
       <c r="D6">
         <f t="shared" ref="D6:D10" si="3">C6/B6</f>
-        <v>80</v>
+        <v>115.7375</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>-19.230769230769241</v>
+        <v>-39.552238805970156</v>
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
-        <v>-12.5</v>
+        <v>-28.191489361702125</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f>A6-A2</f>
-        <v>60</v>
+        <f>A6*(1-A2)</f>
+        <v>62.33203125</v>
       </c>
       <c r="B7">
         <v>15</v>
       </c>
       <c r="C7">
         <f t="shared" si="2"/>
-        <v>1100</v>
+        <v>1469.03515625</v>
       </c>
       <c r="D7">
         <f t="shared" si="3"/>
-        <v>73.333333333333329</v>
+        <v>97.935677083333331</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>-25</v>
+        <v>-46.143617021276597</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>-18.181818181818176</v>
+        <v>-36.354112100576216</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f>A7-A2</f>
-        <v>50</v>
+        <f>A7*(1-A2)</f>
+        <v>46.7490234375</v>
       </c>
       <c r="B8">
         <v>21</v>
       </c>
       <c r="C8">
         <f t="shared" si="2"/>
-        <v>1400</v>
+        <v>1749.529296875</v>
       </c>
       <c r="D8">
         <f t="shared" si="3"/>
-        <v>66.666666666666671</v>
+        <v>83.310918898809518</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>-31.818181818181813</v>
+        <v>-52.265584075432159</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>-25</v>
+        <v>-43.88607873323069</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f>A8-A2</f>
-        <v>40</v>
+        <f>A8*(1-A2)</f>
+        <v>35.061767578125</v>
       </c>
       <c r="B9">
         <v>28</v>
       </c>
       <c r="C9">
         <f t="shared" si="2"/>
-        <v>1680</v>
+        <v>1994.961669921875</v>
       </c>
       <c r="D9">
         <f t="shared" si="3"/>
-        <v>60</v>
+        <v>71.248631068638389</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>-40</v>
+        <v>-57.914559049923021</v>
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>-33.333333333333336</v>
+        <v>-50.789556160948912</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f>A9-A2</f>
-        <v>30</v>
+        <f>A9*(1-A2)</f>
+        <v>26.29632568359375</v>
       </c>
       <c r="B10">
         <v>36</v>
       </c>
       <c r="C10">
         <f t="shared" si="2"/>
-        <v>1920</v>
+        <v>2205.332275390625</v>
       </c>
       <c r="D10">
         <f t="shared" si="3"/>
-        <v>53.333333333333336</v>
+        <v>61.259229871961807</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>-50</v>
+        <v>-63.092167120711686</v>
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>-43.75</v>
+        <v>-57.07369201578959</v>
       </c>
     </row>
   </sheetData>
